--- a/Nueva carpeta/productos.xlsx
+++ b/Nueva carpeta/productos.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -59,23 +60,121 @@
     <t>agregado</t>
   </si>
   <si>
-    <t>NORAVER G FAST TOTAL</t>
-  </si>
-  <si>
-    <t>CAPSULA BLANDA CAJA X 6 CAP</t>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noraver-G Gripa Fast Total </t>
+  </si>
+  <si>
+    <t>Caja Con 12 Cápsulas Blandas</t>
+  </si>
+  <si>
+    <t>Allegra</t>
+  </si>
+  <si>
+    <t>120Mg Caja Con 10 Tabletas Recubiertas</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/104/104.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/105/105.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/106/106.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/107/107.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/108/108.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/109/109.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/110/110.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/111/111.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/112/112.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/113/113.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/114/114.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/115/115.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/116/116.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/117/117.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/118/118.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/119/119.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/120/120.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/121/121.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/122/122.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/123/123.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/124/124.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/125/125.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/126/126.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/127/127.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/128/128.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/129/129.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/130/130.png</t>
+  </si>
+  <si>
+    <t>vistas/img/productos/131/131.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF646464"/>
+      <name val="Montserrat"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,8 +197,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,21 +480,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J26" sqref="J26:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.61328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.23046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.61328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,22 +529,26 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>10200</v>
+        <f>(F2-F2*0.4)</f>
+        <v>7560</v>
       </c>
       <c r="F2">
         <v>12600</v>
@@ -460,221 +565,512 @@
       <c r="J2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E29" si="0">(F3-F3*0.4)</f>
+        <v>30948</v>
+      </c>
+      <c r="F3">
+        <v>51580</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>109</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>110</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>111</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>112</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>113</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>115</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>116</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>117</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>118</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>119</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>120</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>121</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>122</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>12</v>
+      </c>
+      <c r="L20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>123</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18">
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>124</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>125</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>126</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="L24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>128</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="L26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>19</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>19</v>
+      </c>
+      <c r="L28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>19</v>
+      </c>
+      <c r="L29" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Nueva carpeta/productos.xlsx
+++ b/Nueva carpeta/productos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t>vistas/img/productos/131/131.png</t>
+  </si>
+  <si>
+    <t>Bisolvon Para Niños</t>
+  </si>
+  <si>
+    <t>Jarabe en Frasco 120Ml</t>
+  </si>
+  <si>
+    <t>Pax Día Sabor Naranja</t>
+  </si>
+  <si>
+    <t>Caja Con 6 Sobres De 6g</t>
+  </si>
+  <si>
+    <t>cantidad</t>
   </si>
 </sst>
 </file>
@@ -480,22 +495,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:J29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.61328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.61328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.61328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,36 +525,39 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -547,34 +566,37 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <f>(F2-F2*0.4)</f>
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <f>(G2-G2*0.4)</f>
         <v>7560</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>12600</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -583,493 +605,535 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E29" si="0">(F3-F3*0.4)</f>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F29" si="0">(G3-G3*0.4)</f>
         <v>30948</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>51580</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>106</v>
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>15660</v>
+      </c>
+      <c r="G4">
+        <v>26100</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
       <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
         <v>18</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>107</v>
+        <v>207</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5700</v>
+      </c>
+      <c r="G5">
+        <v>9500</v>
+      </c>
+      <c r="K5">
         <v>18</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6">
         <v>108</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>6960</v>
+      </c>
+      <c r="G6">
+        <v>11600</v>
+      </c>
+      <c r="K6">
         <v>18</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7">
         <v>109</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>31530</v>
+      </c>
+      <c r="G7">
+        <v>52550</v>
+      </c>
+      <c r="K7">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8">
         <v>110</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>18</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>11</v>
       </c>
       <c r="B9">
         <v>111</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>14</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="B10">
         <v>112</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>14</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>13</v>
       </c>
       <c r="B11">
         <v>113</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>14</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>14</v>
       </c>
       <c r="B12">
         <v>114</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>14</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>15</v>
       </c>
       <c r="B13">
         <v>115</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>14</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>16</v>
       </c>
       <c r="B14">
         <v>116</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>14</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>17</v>
       </c>
       <c r="B15">
         <v>117</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>12</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>18</v>
       </c>
       <c r="B16">
         <v>118</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>12</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>19</v>
       </c>
       <c r="B17">
         <v>119</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>12</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>20</v>
       </c>
       <c r="B18">
         <v>120</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>12</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>21</v>
       </c>
       <c r="B19">
         <v>121</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>12</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>22</v>
       </c>
       <c r="B20">
         <v>122</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>12</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>23</v>
       </c>
       <c r="B21">
         <v>123</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>8</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>24</v>
       </c>
       <c r="B22">
         <v>124</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>8</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>25</v>
       </c>
       <c r="B23">
         <v>125</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>8</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>26</v>
       </c>
       <c r="B24">
         <v>126</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>8</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>27</v>
       </c>
       <c r="B25">
         <v>127</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>8</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>28</v>
       </c>
       <c r="B26">
         <v>128</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>19</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>29</v>
       </c>
       <c r="B27">
         <v>129</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>19</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>30</v>
       </c>
       <c r="B28">
         <v>130</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>19</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>31</v>
       </c>
       <c r="B29">
         <v>131</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>19</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>43</v>
       </c>
     </row>
